--- a/dist/EUROFEVER.xlsx
+++ b/dist/EUROFEVER.xlsx
@@ -19,10 +19,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4550" uniqueCount="1583">
   <si>
-    <t>umdm</t>
-  </si>
-  <si>
-    <t>umdm_lookups</t>
+    <t>efm</t>
+  </si>
+  <si>
+    <t>efm_lookups</t>
   </si>
   <si>
     <t>EUROFEVER</t>
@@ -34,7 +34,7 @@
     <t>The Catalog of Sequencing and Array Samples (v1.2.0, 2022-06-07)</t>
   </si>
   <si>
-    <t>Lookup tables for the Unified Molgenis Data Model (UMDM) (v1.2.0, 2022-06-07)</t>
+    <t>Lookup tables for Eurofever Molgenis Data Model (EFM) (v1.2.0, 2022-06-07)</t>
   </si>
   <si>
     <t>dcat:catalog</t>
@@ -598,85 +598,85 @@
     <t>NCIT_C117655</t>
   </si>
   <si>
-    <t>umdm_lookups_attributeTemplateDefault</t>
-  </si>
-  <si>
-    <t>umdm_lookups_attributeTemplateCode</t>
-  </si>
-  <si>
-    <t>umdm_lookups_attributeTemplateEurofever</t>
-  </si>
-  <si>
-    <t>umdm_subjects</t>
-  </si>
-  <si>
-    <t>umdm_studies</t>
-  </si>
-  <si>
-    <t>umdm_consent</t>
-  </si>
-  <si>
-    <t>umdm_signedconsents</t>
-  </si>
-  <si>
-    <t>umdm_clinical</t>
-  </si>
-  <si>
-    <t>umdm_samples</t>
-  </si>
-  <si>
-    <t>umdm_samplePreparation</t>
-  </si>
-  <si>
-    <t>umdm_sequencing</t>
-  </si>
-  <si>
-    <t>umdm_files</t>
-  </si>
-  <si>
-    <t>umdm_cohorts</t>
-  </si>
-  <si>
-    <t>umdm_labProcedures</t>
-  </si>
-  <si>
-    <t>umdm_organizations</t>
-  </si>
-  <si>
-    <t>umdm_releases</t>
-  </si>
-  <si>
-    <t>umdm_samplingProtocols</t>
-  </si>
-  <si>
-    <t>umdm_patients</t>
-  </si>
-  <si>
-    <t>umdm_patient_additional_information</t>
-  </si>
-  <si>
-    <t>umdm_patient_proband</t>
-  </si>
-  <si>
-    <t>umdm_diagnosis_autoinflammatory_and_family_history</t>
-  </si>
-  <si>
-    <t>umdm_concomitant_diseases</t>
-  </si>
-  <si>
-    <t>umdm_lab_exam</t>
-  </si>
-  <si>
-    <t>umdm_molecular_analysis</t>
-  </si>
-  <si>
-    <t>umdm_signs_and_symptoms</t>
-  </si>
-  <si>
-    <t>umdm_drug_therapy</t>
-  </si>
-  <si>
-    <t>umdm_drug_therapy_height_and_weight</t>
+    <t>efm_lookups_attributeTemplateDefault</t>
+  </si>
+  <si>
+    <t>efm_lookups_attributeTemplateCode</t>
+  </si>
+  <si>
+    <t>efm_lookups_attributeTemplateEurofever</t>
+  </si>
+  <si>
+    <t>efm_subjects</t>
+  </si>
+  <si>
+    <t>efm_studies</t>
+  </si>
+  <si>
+    <t>efm_consent</t>
+  </si>
+  <si>
+    <t>efm_signedconsents</t>
+  </si>
+  <si>
+    <t>efm_clinical</t>
+  </si>
+  <si>
+    <t>efm_samples</t>
+  </si>
+  <si>
+    <t>efm_samplePreparation</t>
+  </si>
+  <si>
+    <t>efm_sequencing</t>
+  </si>
+  <si>
+    <t>efm_files</t>
+  </si>
+  <si>
+    <t>efm_cohorts</t>
+  </si>
+  <si>
+    <t>efm_labProcedures</t>
+  </si>
+  <si>
+    <t>efm_organizations</t>
+  </si>
+  <si>
+    <t>efm_releases</t>
+  </si>
+  <si>
+    <t>efm_samplingProtocols</t>
+  </si>
+  <si>
+    <t>efm_patients</t>
+  </si>
+  <si>
+    <t>efm_patient_additional_information</t>
+  </si>
+  <si>
+    <t>efm_patient_proband</t>
+  </si>
+  <si>
+    <t>efm_diagnosis_autoinflammatory_and_family_history</t>
+  </si>
+  <si>
+    <t>efm_concomitant_diseases</t>
+  </si>
+  <si>
+    <t>efm_lab_exam</t>
+  </si>
+  <si>
+    <t>efm_molecular_analysis</t>
+  </si>
+  <si>
+    <t>efm_signs_and_symptoms</t>
+  </si>
+  <si>
+    <t>efm_drug_therapy</t>
+  </si>
+  <si>
+    <t>efm_drug_therapy_height_and_weight</t>
   </si>
   <si>
     <t>subjectID</t>
@@ -4054,136 +4054,136 @@
     <t>NCIT_C25714</t>
   </si>
   <si>
-    <t>umdm_lookups_subjectStatus</t>
-  </si>
-  <si>
-    <t>umdm_lookups_genderIdentity</t>
-  </si>
-  <si>
-    <t>umdm_lookups_genderAtBirth</t>
-  </si>
-  <si>
-    <t>umdm_lookups_genotypicSex</t>
-  </si>
-  <si>
-    <t>umdm_lookups_country</t>
-  </si>
-  <si>
-    <t>umdm_lookups_ancestry</t>
-  </si>
-  <si>
-    <t>umdm_lookups_inclusionCriteria</t>
-  </si>
-  <si>
-    <t>umdm_lookups_studyStatus</t>
-  </si>
-  <si>
-    <t>umdm_lookups_phenotype</t>
-  </si>
-  <si>
-    <t>umdm_lookups_diseases</t>
-  </si>
-  <si>
-    <t>umdm_lookups_molecularDiagnosis</t>
-  </si>
-  <si>
-    <t>umdm_lookups_diagnosisConfirmationStatuses</t>
-  </si>
-  <si>
-    <t>umdm_lookups_samplingReason</t>
-  </si>
-  <si>
-    <t>umdm_lookups_biospecimenType</t>
-  </si>
-  <si>
-    <t>umdm_lookups_anatomicalSource</t>
-  </si>
-  <si>
-    <t>umdm_lookups_pathologicalState</t>
-  </si>
-  <si>
-    <t>umdm_lookups_ngsKits</t>
-  </si>
-  <si>
-    <t>umdm_lookups_sequencingPlatform</t>
-  </si>
-  <si>
-    <t>umdm_lookups_sequencingInstrumentModels</t>
-  </si>
-  <si>
-    <t>umdm_lookups_sequencingMethods</t>
-  </si>
-  <si>
-    <t>umdm_lookups_genomeAccessions</t>
-  </si>
-  <si>
-    <t>umdm_lookups_fileStatus</t>
-  </si>
-  <si>
-    <t>umdm_lookups_MaleFemale</t>
-  </si>
-  <si>
-    <t>umdm_lookups_AfricanArcticCaucasianCaucasianCaucasianCauca</t>
-  </si>
-  <si>
-    <t>umdm_lookups_YesNoUnknown</t>
-  </si>
-  <si>
-    <t>umdm_lookups_Degrees</t>
-  </si>
-  <si>
-    <t>umdm_lookups_YesAsymptomaticCarrierNoUnknown</t>
-  </si>
-  <si>
-    <t>umdm_lookups_YesNo</t>
-  </si>
-  <si>
-    <t>umdm_lookups_AutosomicDominantRecessiveXLinkedUnknown</t>
-  </si>
-  <si>
-    <t>umdm_lookups_NotdoneDoneWaitingforresponse</t>
-  </si>
-  <si>
-    <t>umdm_lookups_CompleteGeneScreeningMostRelevantExonsMostRel</t>
-  </si>
-  <si>
-    <t>umdm_lookups_TestNotInformativeTestInformativeTestNegative</t>
-  </si>
-  <si>
-    <t>umdm_lookups_PresentNoPresentNotKnown</t>
-  </si>
-  <si>
-    <t>umdm_lookups_NeverSometimesOrOftenAlwaysNotKnown</t>
-  </si>
-  <si>
-    <t>umdm_lookups_NeverSometimesAlwaysNotknown</t>
-  </si>
-  <si>
-    <t>umdm_lookups_NeverSometimesAlwaysNotKnown</t>
-  </si>
-  <si>
-    <t>umdm_lookups_01Day2Days3Days4Days5Days6Days7Days8Days9Days</t>
-  </si>
-  <si>
-    <t>umdm_lookups_YesNoUnknow</t>
-  </si>
-  <si>
-    <t>umdm_lookups_1Day2Days3Days4Days5Days6Days7Days8Days9Days1</t>
-  </si>
-  <si>
-    <t>umdm_lookups_MonolateralBilateralNotKnown</t>
-  </si>
-  <si>
-    <t>umdm_lookups_RegularPeriodicIrregularNonPeriodicNotKnown</t>
-  </si>
-  <si>
-    <t>umdm_lookups_YesNoNotApplicableNotKnown</t>
-  </si>
-  <si>
-    <t>umdm_lookups_ContinuousRecurrentContinuousAndRecurrentComp</t>
-  </si>
-  <si>
-    <t>umdm_lookups_NoMildSevereNotKnown</t>
+    <t>efm_lookups_subjectStatus</t>
+  </si>
+  <si>
+    <t>efm_lookups_genderIdentity</t>
+  </si>
+  <si>
+    <t>efm_lookups_genderAtBirth</t>
+  </si>
+  <si>
+    <t>efm_lookups_genotypicSex</t>
+  </si>
+  <si>
+    <t>efm_lookups_country</t>
+  </si>
+  <si>
+    <t>efm_lookups_ancestry</t>
+  </si>
+  <si>
+    <t>efm_lookups_inclusionCriteria</t>
+  </si>
+  <si>
+    <t>efm_lookups_studyStatus</t>
+  </si>
+  <si>
+    <t>efm_lookups_phenotype</t>
+  </si>
+  <si>
+    <t>efm_lookups_diseases</t>
+  </si>
+  <si>
+    <t>efm_lookups_molecularDiagnosis</t>
+  </si>
+  <si>
+    <t>efm_lookups_diagnosisConfirmationStatuses</t>
+  </si>
+  <si>
+    <t>efm_lookups_samplingReason</t>
+  </si>
+  <si>
+    <t>efm_lookups_biospecimenType</t>
+  </si>
+  <si>
+    <t>efm_lookups_anatomicalSource</t>
+  </si>
+  <si>
+    <t>efm_lookups_pathologicalState</t>
+  </si>
+  <si>
+    <t>efm_lookups_ngsKits</t>
+  </si>
+  <si>
+    <t>efm_lookups_sequencingPlatform</t>
+  </si>
+  <si>
+    <t>efm_lookups_sequencingInstrumentModels</t>
+  </si>
+  <si>
+    <t>efm_lookups_sequencingMethods</t>
+  </si>
+  <si>
+    <t>efm_lookups_genomeAccessions</t>
+  </si>
+  <si>
+    <t>efm_lookups_fileStatus</t>
+  </si>
+  <si>
+    <t>efm_lookups_MaleFemale</t>
+  </si>
+  <si>
+    <t>efm_lookups_AfricanArcticCaucasianCaucasianCaucasianCauca</t>
+  </si>
+  <si>
+    <t>efm_lookups_YesNoUnknown</t>
+  </si>
+  <si>
+    <t>efm_lookups_Degrees</t>
+  </si>
+  <si>
+    <t>efm_lookups_YesAsymptomaticCarrierNoUnknown</t>
+  </si>
+  <si>
+    <t>efm_lookups_YesNo</t>
+  </si>
+  <si>
+    <t>efm_lookups_AutosomicDominantRecessiveXLinkedUnknown</t>
+  </si>
+  <si>
+    <t>efm_lookups_NotdoneDoneWaitingforresponse</t>
+  </si>
+  <si>
+    <t>efm_lookups_CompleteGeneScreeningMostRelevantExonsMostRel</t>
+  </si>
+  <si>
+    <t>efm_lookups_TestNotInformativeTestInformativeTestNegative</t>
+  </si>
+  <si>
+    <t>efm_lookups_PresentNoPresentNotKnown</t>
+  </si>
+  <si>
+    <t>efm_lookups_NeverSometimesOrOftenAlwaysNotKnown</t>
+  </si>
+  <si>
+    <t>efm_lookups_NeverSometimesAlwaysNotknown</t>
+  </si>
+  <si>
+    <t>efm_lookups_NeverSometimesAlwaysNotKnown</t>
+  </si>
+  <si>
+    <t>efm_lookups_01Day2Days3Days4Days5Days6Days7Days8Days9Days</t>
+  </si>
+  <si>
+    <t>efm_lookups_YesNoUnknow</t>
+  </si>
+  <si>
+    <t>efm_lookups_1Day2Days3Days4Days5Days6Days7Days8Days9Days1</t>
+  </si>
+  <si>
+    <t>efm_lookups_MonolateralBilateralNotKnown</t>
+  </si>
+  <si>
+    <t>efm_lookups_RegularPeriodicIrregularNonPeriodicNotKnown</t>
+  </si>
+  <si>
+    <t>efm_lookups_YesNoNotApplicableNotKnown</t>
+  </si>
+  <si>
+    <t>efm_lookups_ContinuousRecurrentContinuousAndRecurrentComp</t>
+  </si>
+  <si>
+    <t>efm_lookups_NoMildSevereNotKnown</t>
   </si>
   <si>
     <t>label</t>
@@ -4234,517 +4234,517 @@
     <t>https://www.w3.org/TR/vocab-dcat-3/#Class:Catalog</t>
   </si>
   <si>
+    <t>http://edamontology.org/topic_3168</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/ExO_0000127</t>
   </si>
   <si>
-    <t>http://edamontology.org/topic_3168</t>
+    <t>http://purl.obolibrary.org/obo/SCDO_0002829</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171193</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/MESH/D005783</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/data_2340</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DUO_0000001</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/GENEPIO_0001921</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171003</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001902</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C42883</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C61512</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C103264</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0005518</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0020000</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C20826</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GO_0001894</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25412</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171103</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C15607</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25398</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GSSO_009418</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0000085</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C63536</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0000071</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0500027</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25294</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C70713</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/723506003</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171105</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C16977</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C16735</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C176763</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C172217</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C45677</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C117655</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/FIX_0000704</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/SCDO_0002829</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/GO_0001894</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C103264</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C42883</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C16977</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C171103</t>
-  </si>
-  <si>
-    <t>http://edamontology.org/data_2340</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C61512</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/GENEPIO_0000071</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25294</t>
-  </si>
-  <si>
-    <t>http://purl.bioontology.org/ontology/MESH/D005783</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C176763</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C16735</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C20826</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0001902</t>
-  </si>
-  <si>
-    <t>http://www.ebi.ac.uk/efo/EFO_0005518</t>
-  </si>
-  <si>
-    <t>http://purl.bioontology.org/ontology/SNOMEDCT/723506003</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DUO_0000001</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C15607</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/PATO_0020000</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C70713</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C171003</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C45677</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/GSSO_009418</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C117655</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C172217</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C171193</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C171105</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/GENEPIO_0000085</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25398</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C63536</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25412</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0500027</t>
+    <t>http://purl.obolibrary.org/obo/OMIABIS_0000100</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171192</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C164339</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C166209</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0010199</t>
+  </si>
+  <si>
+    <t>https://w3id.org/reproduceme#wasUpdatedBy</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ICO_0000036</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C176342</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25364</t>
+  </si>
+  <si>
+    <t>http://semanticscience.org/resource/SIO_001330</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25173</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C164021</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C43361</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C17730</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0000069</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/data_3914</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C73427</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C132299</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C67073</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25164</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C117142</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C87853</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171337</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C153362</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25162</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001891</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C156426</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C48297</t>
+  </si>
+  <si>
+    <t>http://semanticscience.org/resource/SIO_001083</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/423493009</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000010</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ICO_0000233</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/HL7/C0332241</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C142495</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OMIABIS_0000035</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C19924</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C69199</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DUO_0000042</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ICO_0000044</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C89336</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C83142</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C154307</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C115505</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C21480</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C70895</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25737</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/data_3273</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C142704</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C171337</t>
+    <t>http://purl.bioontology.org/ontology/HL7/C0442737</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C17003</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0000089</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C93629</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C64917</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171191</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C164024</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C93529</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C42614</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C69208</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C153145</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25393</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000118</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C68615</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OMIABIS_0000037</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000136</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C176373</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C50996</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25461</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C69216</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C93495</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C135383</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C49100</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C47922</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C142702</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C42628</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C165071</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171004</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C176375</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25714</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C16493</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25365</t>
+  </si>
+  <si>
+    <t>https://w3id.org/fair-genomes/resource/FG_0000001</t>
+  </si>
+  <si>
+    <t>https://w3id.org/fair-genomes/resource/FG_0000003</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C164567</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C83322</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C164566</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C155320</t>
   </si>
   <si>
-    <t>http://purl.bioontology.org/ontology/HL7/C0332241</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/ICO_0000044</t>
+    <t>http://www.orpha.net/ORDO/Orphanet_C023</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171252</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C164483</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C70810</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C45262</t>
+  </si>
+  <si>
+    <t>https://w3id.org/fair-genomes/resource/FG_0000002</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C90353</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C83164</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C94324</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OMIABIS_0000006</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C45330</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171276</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0000689</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0001094</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C53190</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C83017</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RO_0000056</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C25688</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C164021</t>
-  </si>
-  <si>
-    <t>http://semanticscience.org/resource/SIO_001083</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/RO_0000056</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C69216</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C142702</t>
-  </si>
-  <si>
-    <t>http://www.ebi.ac.uk/efo/EFO_0000689</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C171004</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25393</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C83142</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C164339</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C153362</t>
+    <t>http://purl.obolibrary.org/obo/MS_1000589</t>
   </si>
   <si>
     <t>https://w3id.org/fair-genomes/resource/FG_0000745</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C64917</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C69208</t>
-  </si>
-  <si>
-    <t>https://w3id.org/fair-genomes/resource/FG_0000003</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C87853</t>
-  </si>
-  <si>
-    <t>http://purl.bioontology.org/ontology/SNOMEDCT/423493009</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C68615</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C164566</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C53190</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C165071</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25714</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C70895</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C83164</t>
-  </si>
-  <si>
-    <t>http://www.ebi.ac.uk/efo/EFO_0010199</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C93495</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OMIABIS_0000035</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C16493</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C43361</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C154307</t>
+    <t>http://purl.obolibrary.org/obo/NCIT_C93400</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C71384</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/GENEPIO_0000069</t>
-  </si>
-  <si>
-    <t>http://semanticscience.org/resource/SIO_001330</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C153145</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C21480</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C17730</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C89336</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/GENEPIO_0000089</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C42628</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C47922</t>
-  </si>
-  <si>
-    <t>https://w3id.org/fair-genomes/resource/FG_0000002</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C164483</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25737</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C93629</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C117142</t>
-  </si>
-  <si>
-    <t>https://w3id.org/fair-genomes/resource/FG_0000001</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C50996</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/ICO_0000233</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OMIABIS_0000006</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C94324</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C45330</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C17003</t>
-  </si>
-  <si>
-    <t>http://edamontology.org/data_3914</t>
-  </si>
-  <si>
-    <t>https://w3id.org/reproduceme#wasUpdatedBy</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25365</t>
-  </si>
-  <si>
-    <t>http://purl.bioontology.org/ontology/HL7/C0442737</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C48297</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000589</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C171192</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/ICO_0000036</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OMIABIS_0000100</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C83322</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DUO_0000042</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C164567</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C176342</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C135383</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C93529</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25162</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C93400</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25173</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C164024</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/GENEPIO_0001094</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C70810</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C176373</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C171276</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C171191</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C19924</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C73427</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C90353</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C42614</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25364</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C142495</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C132299</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/IAO_0000136</t>
-  </si>
-  <si>
-    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000010</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0000118</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OMIABIS_0000037</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C115505</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C166209</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C67073</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C176375</t>
-  </si>
-  <si>
-    <t>http://www.orpha.net/ORDO/Orphanet_C023</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25461</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C49100</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25164</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C45262</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C156426</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C69199</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C83017</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0001891</t>
-  </si>
-  <si>
-    <t>http://edamontology.org/data_3273</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C171252</t>
-  </si>
-  <si>
     <t>dcat</t>
   </si>
   <si>
+    <t>EDAM</t>
+  </si>
+  <si>
     <t>ExO</t>
   </si>
   <si>
-    <t>EDAM</t>
+    <t>SCDO</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
+    <t>MESH</t>
+  </si>
+  <si>
+    <t>DUO</t>
   </si>
   <si>
     <t>GENEPIO</t>
   </si>
   <si>
+    <t>OBI</t>
+  </si>
+  <si>
+    <t>EFO</t>
+  </si>
+  <si>
+    <t>PATO</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>GSSO</t>
+  </si>
+  <si>
+    <t>SNOMEDCT</t>
+  </si>
+  <si>
     <t>FIX</t>
   </si>
   <si>
-    <t>SCDO</t>
-  </si>
-  <si>
-    <t>GO</t>
-  </si>
-  <si>
-    <t>NCIT</t>
-  </si>
-  <si>
-    <t>MESH</t>
-  </si>
-  <si>
-    <t>OBI</t>
-  </si>
-  <si>
-    <t>EFO</t>
-  </si>
-  <si>
-    <t>SNOMEDCT</t>
-  </si>
-  <si>
-    <t>DUO</t>
-  </si>
-  <si>
-    <t>PATO</t>
-  </si>
-  <si>
-    <t>GSSO</t>
+    <t>OMIABIS</t>
+  </si>
+  <si>
+    <t>reproduceme</t>
+  </si>
+  <si>
+    <t>ICO</t>
+  </si>
+  <si>
+    <t>SIO</t>
+  </si>
+  <si>
+    <t>AFO</t>
   </si>
   <si>
     <t>HL7</t>
   </si>
   <si>
-    <t>ICO</t>
-  </si>
-  <si>
-    <t>SIO</t>
+    <t>IAO</t>
+  </si>
+  <si>
+    <t>FG</t>
+  </si>
+  <si>
+    <t>Orphanet</t>
   </si>
   <si>
     <t>RO</t>
   </si>
   <si>
-    <t>FG</t>
-  </si>
-  <si>
-    <t>OMIABIS</t>
-  </si>
-  <si>
-    <t>reproduceme</t>
-  </si>
-  <si>
     <t>MS</t>
-  </si>
-  <si>
-    <t>IAO</t>
-  </si>
-  <si>
-    <t>AFO</t>
-  </si>
-  <si>
-    <t>Orphanet</t>
   </si>
   <si>
     <t>isAssociatedWith</t>
@@ -26647,10 +26647,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1405</v>
@@ -26667,10 +26667,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1406</v>
@@ -26687,10 +26687,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1407</v>
@@ -26707,10 +26707,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1408</v>
@@ -26727,10 +26727,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1409</v>
@@ -26747,16 +26747,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1410</v>
       </c>
       <c r="D9" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="E9" t="s">
         <v>1576</v>
@@ -26767,16 +26767,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1411</v>
       </c>
       <c r="D10" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E10" t="s">
         <v>1576</v>
@@ -26787,10 +26787,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1412</v>
@@ -26807,16 +26807,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1413</v>
       </c>
       <c r="D12" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E12" t="s">
         <v>1576</v>
@@ -26827,16 +26827,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1414</v>
       </c>
       <c r="D13" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="E13" t="s">
         <v>1576</v>
@@ -26847,16 +26847,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1415</v>
       </c>
       <c r="D14" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="E14" t="s">
         <v>1576</v>
@@ -26876,7 +26876,7 @@
         <v>1416</v>
       </c>
       <c r="D15" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E15" t="s">
         <v>1576</v>
@@ -26887,16 +26887,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>1417</v>
       </c>
       <c r="D16" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="E16" t="s">
         <v>1576</v>
@@ -26907,16 +26907,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1418</v>
       </c>
       <c r="D17" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="E17" t="s">
         <v>1576</v>
@@ -26927,16 +26927,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>1419</v>
       </c>
       <c r="D18" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="E18" t="s">
         <v>1576</v>
@@ -26947,16 +26947,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>1420</v>
       </c>
       <c r="D19" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E19" t="s">
         <v>1576</v>
@@ -26967,16 +26967,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>1421</v>
       </c>
       <c r="D20" t="s">
-        <v>1557</v>
+        <v>1561</v>
       </c>
       <c r="E20" t="s">
         <v>1576</v>
@@ -26987,16 +26987,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>1422</v>
       </c>
       <c r="D21" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E21" t="s">
         <v>1576</v>
@@ -27007,16 +27007,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>1423</v>
       </c>
       <c r="D22" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="E22" t="s">
         <v>1576</v>
@@ -27027,16 +27027,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>1424</v>
       </c>
       <c r="D23" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="E23" t="s">
         <v>1576</v>
@@ -27047,16 +27047,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>1425</v>
       </c>
       <c r="D24" t="s">
-        <v>1561</v>
+        <v>1554</v>
       </c>
       <c r="E24" t="s">
         <v>1576</v>
@@ -27067,10 +27067,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>1426</v>
@@ -27087,10 +27087,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>1427</v>
@@ -27107,16 +27107,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="B27" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>1428</v>
       </c>
       <c r="D27" t="s">
-        <v>1563</v>
+        <v>1554</v>
       </c>
       <c r="E27" t="s">
         <v>1576</v>
@@ -27127,10 +27127,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="B28" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>1429</v>
@@ -27147,16 +27147,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>1430</v>
       </c>
       <c r="D29" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="E29" t="s">
         <v>1576</v>
@@ -27167,16 +27167,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1426</v>
+        <v>1431</v>
       </c>
       <c r="D30" t="s">
-        <v>1562</v>
+        <v>1554</v>
       </c>
       <c r="E30" t="s">
         <v>1576</v>
@@ -27187,16 +27187,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B31" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D31" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E31" t="s">
         <v>1576</v>
@@ -27207,16 +27207,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B32" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D32" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="E32" t="s">
         <v>1576</v>
@@ -27227,16 +27227,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="B33" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D33" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E33" t="s">
         <v>1576</v>
@@ -27247,16 +27247,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D34" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E34" t="s">
         <v>1576</v>
@@ -27267,16 +27267,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B35" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="D35" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E35" t="s">
         <v>1576</v>
@@ -27287,16 +27287,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B36" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="D36" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E36" t="s">
         <v>1576</v>
@@ -27307,16 +27307,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B37" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D37" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="E37" t="s">
         <v>1576</v>
@@ -27327,16 +27327,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="D38" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E38" t="s">
         <v>1576</v>
@@ -27347,16 +27347,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="B39" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D39" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E39" t="s">
         <v>1576</v>
@@ -27367,16 +27367,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>1440</v>
+        <v>1411</v>
       </c>
       <c r="D40" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E40" t="s">
         <v>1576</v>
@@ -27387,16 +27387,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B41" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>1441</v>
       </c>
       <c r="D41" t="s">
-        <v>1559</v>
+        <v>1564</v>
       </c>
       <c r="E41" t="s">
         <v>1576</v>
@@ -27407,16 +27407,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>1268</v>
+        <v>1327</v>
       </c>
       <c r="B42" t="s">
-        <v>1268</v>
+        <v>1327</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>1442</v>
       </c>
       <c r="D42" t="s">
-        <v>1557</v>
+        <v>1565</v>
       </c>
       <c r="E42" t="s">
         <v>1576</v>
@@ -27427,16 +27427,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>1308</v>
+        <v>1320</v>
       </c>
       <c r="B43" t="s">
-        <v>1308</v>
+        <v>1320</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>1443</v>
       </c>
       <c r="D43" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E43" t="s">
         <v>1576</v>
@@ -27447,16 +27447,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>185</v>
+        <v>1283</v>
       </c>
       <c r="B44" t="s">
-        <v>185</v>
+        <v>1283</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>1410</v>
+        <v>1444</v>
       </c>
       <c r="D44" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="E44" t="s">
         <v>1576</v>
@@ -27467,16 +27467,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>1312</v>
+        <v>1326</v>
       </c>
       <c r="B45" t="s">
-        <v>1312</v>
+        <v>1326</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D45" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E45" t="s">
         <v>1576</v>
@@ -27487,16 +27487,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>1287</v>
+        <v>187</v>
       </c>
       <c r="B46" t="s">
-        <v>1287</v>
+        <v>187</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>1445</v>
+        <v>1413</v>
       </c>
       <c r="D46" t="s">
-        <v>1565</v>
+        <v>1554</v>
       </c>
       <c r="E46" t="s">
         <v>1576</v>
@@ -27507,16 +27507,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>1272</v>
+        <v>181</v>
       </c>
       <c r="B47" t="s">
-        <v>1272</v>
+        <v>181</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>1446</v>
+        <v>1419</v>
       </c>
       <c r="D47" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="E47" t="s">
         <v>1576</v>
@@ -27527,16 +27527,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>179</v>
+        <v>1303</v>
       </c>
       <c r="B48" t="s">
-        <v>179</v>
+        <v>1303</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>1419</v>
+        <v>1446</v>
       </c>
       <c r="D48" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="E48" t="s">
         <v>1576</v>
@@ -27547,16 +27547,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>158</v>
+        <v>1261</v>
       </c>
       <c r="B49" t="s">
-        <v>158</v>
+        <v>1261</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>1421</v>
+        <v>1447</v>
       </c>
       <c r="D49" t="s">
-        <v>1557</v>
+        <v>1566</v>
       </c>
       <c r="E49" t="s">
         <v>1576</v>
@@ -27567,16 +27567,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>1288</v>
+        <v>185</v>
       </c>
       <c r="B50" t="s">
-        <v>1288</v>
+        <v>185</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1447</v>
+        <v>1421</v>
       </c>
       <c r="D50" t="s">
-        <v>1557</v>
+        <v>1561</v>
       </c>
       <c r="E50" t="s">
         <v>1576</v>
@@ -27587,16 +27587,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>1251</v>
+        <v>1279</v>
       </c>
       <c r="B51" t="s">
-        <v>1251</v>
+        <v>1279</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>1448</v>
       </c>
       <c r="D51" t="s">
-        <v>1557</v>
+        <v>1567</v>
       </c>
       <c r="E51" t="s">
         <v>1576</v>
@@ -27607,16 +27607,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>1340</v>
+        <v>1280</v>
       </c>
       <c r="B52" t="s">
-        <v>1340</v>
+        <v>1280</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>1449</v>
       </c>
       <c r="D52" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="E52" t="s">
         <v>1576</v>
@@ -27627,16 +27627,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>1255</v>
+        <v>176</v>
       </c>
       <c r="B53" t="s">
-        <v>1255</v>
+        <v>176</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>1450</v>
+        <v>1424</v>
       </c>
       <c r="D53" t="s">
-        <v>1568</v>
+        <v>1554</v>
       </c>
       <c r="E53" t="s">
         <v>1576</v>
@@ -27647,16 +27647,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>1309</v>
+        <v>1324</v>
       </c>
       <c r="B54" t="s">
-        <v>1309</v>
+        <v>1324</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D54" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E54" t="s">
         <v>1576</v>
@@ -27667,13 +27667,13 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>1270</v>
+        <v>184</v>
       </c>
       <c r="B55" t="s">
-        <v>1270</v>
+        <v>184</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1452</v>
+        <v>1427</v>
       </c>
       <c r="D55" t="s">
         <v>1557</v>
@@ -27687,16 +27687,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>1294</v>
+        <v>1256</v>
       </c>
       <c r="B56" t="s">
-        <v>1294</v>
+        <v>1256</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D56" t="s">
-        <v>1560</v>
+        <v>1568</v>
       </c>
       <c r="E56" t="s">
         <v>1576</v>
@@ -27707,16 +27707,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>1297</v>
+        <v>1238</v>
       </c>
       <c r="B57" t="s">
-        <v>1297</v>
+        <v>1238</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D57" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E57" t="s">
         <v>1576</v>
@@ -27727,16 +27727,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>172</v>
+        <v>1251</v>
       </c>
       <c r="B58" t="s">
-        <v>172</v>
+        <v>1251</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1429</v>
+        <v>1453</v>
       </c>
       <c r="D58" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E58" t="s">
         <v>1576</v>
@@ -27747,16 +27747,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>187</v>
+        <v>1306</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
+        <v>1306</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>1430</v>
+        <v>1454</v>
       </c>
       <c r="D59" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E59" t="s">
         <v>1576</v>
@@ -27767,16 +27767,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>1257</v>
+        <v>182</v>
       </c>
       <c r="B60" t="s">
-        <v>1257</v>
+        <v>182</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>1455</v>
+        <v>1430</v>
       </c>
       <c r="D60" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="E60" t="s">
         <v>1576</v>
@@ -27787,16 +27787,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>1334</v>
+        <v>1253</v>
       </c>
       <c r="B61" t="s">
-        <v>1334</v>
+        <v>1253</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D61" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E61" t="s">
         <v>1576</v>
@@ -27807,13 +27807,13 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>1283</v>
+        <v>1310</v>
       </c>
       <c r="B62" t="s">
-        <v>1283</v>
+        <v>1310</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D62" t="s">
         <v>1557</v>
@@ -27827,16 +27827,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>1305</v>
+        <v>172</v>
       </c>
       <c r="B63" t="s">
-        <v>1305</v>
+        <v>172</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>1458</v>
+        <v>1432</v>
       </c>
       <c r="D63" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E63" t="s">
         <v>1576</v>
@@ -27847,16 +27847,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>1276</v>
+        <v>1316</v>
       </c>
       <c r="B64" t="s">
-        <v>1276</v>
+        <v>1316</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D64" t="s">
-        <v>1569</v>
+        <v>1551</v>
       </c>
       <c r="E64" t="s">
         <v>1576</v>
@@ -27867,16 +27867,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>1282</v>
+        <v>1252</v>
       </c>
       <c r="B65" t="s">
-        <v>1282</v>
+        <v>1252</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D65" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E65" t="s">
         <v>1576</v>
@@ -27887,16 +27887,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>192</v>
+        <v>1298</v>
       </c>
       <c r="B66" t="s">
-        <v>192</v>
+        <v>1298</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>1433</v>
+        <v>1459</v>
       </c>
       <c r="D66" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E66" t="s">
         <v>1576</v>
@@ -27907,16 +27907,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>167</v>
+        <v>1307</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>1307</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>1434</v>
+        <v>1460</v>
       </c>
       <c r="D67" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E67" t="s">
         <v>1576</v>
@@ -27927,16 +27927,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>1269</v>
+        <v>1289</v>
       </c>
       <c r="B68" t="s">
-        <v>1269</v>
+        <v>1289</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>1461</v>
       </c>
       <c r="D68" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E68" t="s">
         <v>1576</v>
@@ -27947,16 +27947,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>1315</v>
+        <v>1331</v>
       </c>
       <c r="B69" t="s">
-        <v>1315</v>
+        <v>1331</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>1462</v>
       </c>
       <c r="D69" t="s">
-        <v>1569</v>
+        <v>1554</v>
       </c>
       <c r="E69" t="s">
         <v>1576</v>
@@ -27976,7 +27976,7 @@
         <v>1463</v>
       </c>
       <c r="D70" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E70" t="s">
         <v>1576</v>
@@ -27987,16 +27987,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>1284</v>
+        <v>171</v>
       </c>
       <c r="B71" t="s">
-        <v>1284</v>
+        <v>171</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>1464</v>
+        <v>1437</v>
       </c>
       <c r="D71" t="s">
-        <v>1561</v>
+        <v>1554</v>
       </c>
       <c r="E71" t="s">
         <v>1576</v>
@@ -28007,16 +28007,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>1242</v>
+        <v>167</v>
       </c>
       <c r="B72" t="s">
-        <v>1242</v>
+        <v>167</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>1465</v>
+        <v>1438</v>
       </c>
       <c r="D72" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E72" t="s">
         <v>1576</v>
@@ -28027,16 +28027,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>1292</v>
+        <v>1308</v>
       </c>
       <c r="B73" t="s">
-        <v>1292</v>
+        <v>1308</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="D73" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E73" t="s">
         <v>1576</v>
@@ -28047,16 +28047,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>170</v>
+        <v>1305</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>1305</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>1411</v>
+        <v>1465</v>
       </c>
       <c r="D74" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E74" t="s">
         <v>1576</v>
@@ -28067,16 +28067,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>1329</v>
+        <v>1338</v>
       </c>
       <c r="B75" t="s">
-        <v>1329</v>
+        <v>1338</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D75" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E75" t="s">
         <v>1576</v>
@@ -28087,16 +28087,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>1339</v>
+        <v>1311</v>
       </c>
       <c r="B76" t="s">
-        <v>1339</v>
+        <v>1311</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D76" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="E76" t="s">
         <v>1576</v>
@@ -28107,16 +28107,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>1344</v>
+        <v>1245</v>
       </c>
       <c r="B77" t="s">
-        <v>1344</v>
+        <v>1245</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D77" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E77" t="s">
         <v>1576</v>
@@ -28127,16 +28127,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>1337</v>
+        <v>1321</v>
       </c>
       <c r="B78" t="s">
-        <v>1337</v>
+        <v>1321</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D78" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E78" t="s">
         <v>1576</v>
@@ -28147,16 +28147,16 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>191</v>
+        <v>1340</v>
       </c>
       <c r="B79" t="s">
-        <v>191</v>
+        <v>1340</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>1414</v>
+        <v>1470</v>
       </c>
       <c r="D79" t="s">
-        <v>1557</v>
+        <v>1568</v>
       </c>
       <c r="E79" t="s">
         <v>1576</v>
@@ -28167,16 +28167,16 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>178</v>
+        <v>1284</v>
       </c>
       <c r="B80" t="s">
-        <v>178</v>
+        <v>1284</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>1415</v>
+        <v>1471</v>
       </c>
       <c r="D80" t="s">
-        <v>1552</v>
+        <v>1563</v>
       </c>
       <c r="E80" t="s">
         <v>1576</v>
@@ -28187,16 +28187,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>164</v>
+        <v>1300</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>1300</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>1416</v>
+        <v>1472</v>
       </c>
       <c r="D81" t="s">
-        <v>1557</v>
+        <v>1569</v>
       </c>
       <c r="E81" t="s">
         <v>1576</v>
@@ -28207,16 +28207,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>1243</v>
+        <v>1277</v>
       </c>
       <c r="B82" t="s">
-        <v>1243</v>
+        <v>1277</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="D82" t="s">
-        <v>1557</v>
+        <v>1567</v>
       </c>
       <c r="E82" t="s">
         <v>1576</v>
@@ -28227,16 +28227,16 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>1303</v>
+        <v>179</v>
       </c>
       <c r="B83" t="s">
-        <v>1303</v>
+        <v>179</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>1472</v>
+        <v>1409</v>
       </c>
       <c r="D83" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="E83" t="s">
         <v>1576</v>
@@ -28247,16 +28247,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>1263</v>
+        <v>1287</v>
       </c>
       <c r="B84" t="s">
-        <v>1263</v>
+        <v>1287</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D84" t="s">
-        <v>1557</v>
+        <v>1570</v>
       </c>
       <c r="E84" t="s">
         <v>1576</v>
@@ -28267,16 +28267,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>1328</v>
+        <v>177</v>
       </c>
       <c r="B85" t="s">
-        <v>1328</v>
+        <v>177</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>1474</v>
+        <v>1408</v>
       </c>
       <c r="D85" t="s">
-        <v>1570</v>
+        <v>1554</v>
       </c>
       <c r="E85" t="s">
         <v>1576</v>
@@ -28287,16 +28287,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>165</v>
+        <v>1237</v>
       </c>
       <c r="B86" t="s">
-        <v>165</v>
+        <v>1237</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>1418</v>
+        <v>1475</v>
       </c>
       <c r="D86" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E86" t="s">
         <v>1576</v>
@@ -28307,16 +28307,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>1342</v>
+        <v>178</v>
       </c>
       <c r="B87" t="s">
-        <v>1342</v>
+        <v>178</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1475</v>
+        <v>1410</v>
       </c>
       <c r="D87" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="E87" t="s">
         <v>1576</v>
@@ -28327,16 +28327,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>1306</v>
+        <v>1328</v>
       </c>
       <c r="B88" t="s">
-        <v>1306</v>
+        <v>1328</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>1476</v>
       </c>
       <c r="D88" t="s">
-        <v>1557</v>
+        <v>1565</v>
       </c>
       <c r="E88" t="s">
         <v>1576</v>
@@ -28347,16 +28347,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>1302</v>
+        <v>1265</v>
       </c>
       <c r="B89" t="s">
-        <v>1302</v>
+        <v>1265</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>1477</v>
       </c>
       <c r="D89" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E89" t="s">
         <v>1576</v>
@@ -28367,16 +28367,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>1254</v>
+        <v>183</v>
       </c>
       <c r="B90" t="s">
-        <v>1254</v>
+        <v>183</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>1478</v>
+        <v>1420</v>
       </c>
       <c r="D90" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E90" t="s">
         <v>1576</v>
@@ -28387,16 +28387,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>1310</v>
+        <v>1323</v>
       </c>
       <c r="B91" t="s">
-        <v>1310</v>
+        <v>1323</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D91" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="E91" t="s">
         <v>1576</v>
@@ -28407,16 +28407,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>1256</v>
+        <v>1275</v>
       </c>
       <c r="B92" t="s">
-        <v>1256</v>
+        <v>1275</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D92" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
       <c r="E92" t="s">
         <v>1576</v>
@@ -28427,16 +28427,16 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>1271</v>
+        <v>166</v>
       </c>
       <c r="B93" t="s">
-        <v>1271</v>
+        <v>166</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>1481</v>
+        <v>1422</v>
       </c>
       <c r="D93" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E93" t="s">
         <v>1576</v>
@@ -28447,16 +28447,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>1241</v>
+        <v>1272</v>
       </c>
       <c r="B94" t="s">
-        <v>1241</v>
+        <v>1272</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="D94" t="s">
-        <v>1557</v>
+        <v>1567</v>
       </c>
       <c r="E94" t="s">
         <v>1576</v>
@@ -28467,16 +28467,16 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>1253</v>
+        <v>191</v>
       </c>
       <c r="B95" t="s">
-        <v>1253</v>
+        <v>191</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>1483</v>
+        <v>1423</v>
       </c>
       <c r="D95" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E95" t="s">
         <v>1576</v>
@@ -28493,10 +28493,10 @@
         <v>1239</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="D96" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E96" t="s">
         <v>1576</v>
@@ -28507,16 +28507,16 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>176</v>
+        <v>1334</v>
       </c>
       <c r="B97" t="s">
-        <v>176</v>
+        <v>1334</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1427</v>
+        <v>1482</v>
       </c>
       <c r="D97" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E97" t="s">
         <v>1576</v>
@@ -28527,16 +28527,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="B98" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="D98" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="E98" t="s">
         <v>1576</v>
@@ -28547,16 +28547,16 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>1259</v>
+        <v>1343</v>
       </c>
       <c r="B99" t="s">
-        <v>1259</v>
+        <v>1343</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="D99" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E99" t="s">
         <v>1576</v>
@@ -28567,16 +28567,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>180</v>
+        <v>1241</v>
       </c>
       <c r="B100" t="s">
-        <v>180</v>
+        <v>1241</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>1432</v>
+        <v>1485</v>
       </c>
       <c r="D100" t="s">
-        <v>1564</v>
+        <v>1554</v>
       </c>
       <c r="E100" t="s">
         <v>1576</v>
@@ -28587,16 +28587,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>1318</v>
+        <v>1337</v>
       </c>
       <c r="B101" t="s">
-        <v>1318</v>
+        <v>1337</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D101" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E101" t="s">
         <v>1576</v>
@@ -28607,16 +28607,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>1313</v>
+        <v>1274</v>
       </c>
       <c r="B102" t="s">
-        <v>1313</v>
+        <v>1274</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D102" t="s">
-        <v>1569</v>
+        <v>1554</v>
       </c>
       <c r="E102" t="s">
         <v>1576</v>
@@ -28627,16 +28627,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>1258</v>
+        <v>165</v>
       </c>
       <c r="B103" t="s">
-        <v>1258</v>
+        <v>165</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>1489</v>
+        <v>1431</v>
       </c>
       <c r="D103" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E103" t="s">
         <v>1576</v>
@@ -28647,16 +28647,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>184</v>
+        <v>1290</v>
       </c>
       <c r="B104" t="s">
-        <v>184</v>
+        <v>1290</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>1437</v>
+        <v>1488</v>
       </c>
       <c r="D104" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E104" t="s">
         <v>1576</v>
@@ -28667,16 +28667,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="B105" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D105" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E105" t="s">
         <v>1576</v>
@@ -28687,16 +28687,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>1260</v>
+        <v>1286</v>
       </c>
       <c r="B106" t="s">
-        <v>1260</v>
+        <v>1286</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D106" t="s">
-        <v>1557</v>
+        <v>1570</v>
       </c>
       <c r="E106" t="s">
         <v>1576</v>
@@ -28707,16 +28707,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>1331</v>
+        <v>1301</v>
       </c>
       <c r="B107" t="s">
-        <v>1331</v>
+        <v>1301</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D107" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E107" t="s">
         <v>1576</v>
@@ -28727,16 +28727,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>188</v>
+        <v>1314</v>
       </c>
       <c r="B108" t="s">
-        <v>188</v>
+        <v>1314</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1407</v>
+        <v>1492</v>
       </c>
       <c r="D108" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="E108" t="s">
         <v>1576</v>
@@ -28747,16 +28747,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>1304</v>
+        <v>1260</v>
       </c>
       <c r="B109" t="s">
-        <v>1304</v>
+        <v>1260</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>1493</v>
       </c>
       <c r="D109" t="s">
-        <v>1569</v>
+        <v>1554</v>
       </c>
       <c r="E109" t="s">
         <v>1576</v>
@@ -28767,16 +28767,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>186</v>
+        <v>1282</v>
       </c>
       <c r="B110" t="s">
-        <v>186</v>
+        <v>1282</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1413</v>
+        <v>1494</v>
       </c>
       <c r="D110" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E110" t="s">
         <v>1576</v>
@@ -28787,16 +28787,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>1295</v>
+        <v>1317</v>
       </c>
       <c r="B111" t="s">
-        <v>1295</v>
+        <v>1317</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D111" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E111" t="s">
         <v>1576</v>
@@ -28807,16 +28807,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>1277</v>
+        <v>1293</v>
       </c>
       <c r="B112" t="s">
-        <v>1277</v>
+        <v>1293</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D112" t="s">
-        <v>1566</v>
+        <v>1554</v>
       </c>
       <c r="E112" t="s">
         <v>1576</v>
@@ -28827,16 +28827,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>1262</v>
+        <v>1296</v>
       </c>
       <c r="B113" t="s">
-        <v>1262</v>
+        <v>1296</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D113" t="s">
-        <v>1570</v>
+        <v>1554</v>
       </c>
       <c r="E113" t="s">
         <v>1576</v>
@@ -28847,16 +28847,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>1240</v>
+        <v>1325</v>
       </c>
       <c r="B114" t="s">
-        <v>1240</v>
+        <v>1325</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D114" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E114" t="s">
         <v>1576</v>
@@ -28867,16 +28867,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>1341</v>
+        <v>1269</v>
       </c>
       <c r="B115" t="s">
-        <v>1341</v>
+        <v>1269</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D115" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E115" t="s">
         <v>1576</v>
@@ -28887,16 +28887,16 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>190</v>
+        <v>1271</v>
       </c>
       <c r="B116" t="s">
-        <v>190</v>
+        <v>1271</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="D116" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="E116" t="s">
         <v>1576</v>
@@ -28907,16 +28907,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>1301</v>
+        <v>1257</v>
       </c>
       <c r="B117" t="s">
-        <v>1301</v>
+        <v>1257</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="D117" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E117" t="s">
         <v>1576</v>
@@ -28927,16 +28927,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>1316</v>
+        <v>1335</v>
       </c>
       <c r="B118" t="s">
-        <v>1316</v>
+        <v>1335</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="D118" t="s">
-        <v>1552</v>
+        <v>1558</v>
       </c>
       <c r="E118" t="s">
         <v>1576</v>
@@ -28947,16 +28947,16 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>1261</v>
+        <v>1242</v>
       </c>
       <c r="B119" t="s">
-        <v>1261</v>
+        <v>1242</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="D119" t="s">
-        <v>1571</v>
+        <v>1554</v>
       </c>
       <c r="E119" t="s">
         <v>1576</v>
@@ -28967,16 +28967,16 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>1332</v>
+        <v>1264</v>
       </c>
       <c r="B120" t="s">
-        <v>1332</v>
+        <v>1264</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="D120" t="s">
-        <v>1557</v>
+        <v>1565</v>
       </c>
       <c r="E120" t="s">
         <v>1576</v>
@@ -28987,16 +28987,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>1286</v>
+        <v>1273</v>
       </c>
       <c r="B121" t="s">
-        <v>1286</v>
+        <v>1273</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="D121" t="s">
-        <v>1565</v>
+        <v>1571</v>
       </c>
       <c r="E121" t="s">
         <v>1576</v>
@@ -29007,16 +29007,16 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>171</v>
+        <v>1266</v>
       </c>
       <c r="B122" t="s">
-        <v>171</v>
+        <v>1266</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>1420</v>
+        <v>1506</v>
       </c>
       <c r="D122" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E122" t="s">
         <v>1576</v>
@@ -29027,16 +29027,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>1321</v>
+        <v>1295</v>
       </c>
       <c r="B123" t="s">
-        <v>1321</v>
+        <v>1295</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="D123" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E123" t="s">
         <v>1576</v>
@@ -29047,16 +29047,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B124" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="D124" t="s">
-        <v>1572</v>
+        <v>1554</v>
       </c>
       <c r="E124" t="s">
         <v>1576</v>
@@ -29067,16 +29067,16 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>1320</v>
+        <v>1309</v>
       </c>
       <c r="B125" t="s">
-        <v>1320</v>
+        <v>1309</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="D125" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E125" t="s">
         <v>1576</v>
@@ -29087,16 +29087,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>1279</v>
+        <v>1263</v>
       </c>
       <c r="B126" t="s">
-        <v>1279</v>
+        <v>1263</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="D126" t="s">
-        <v>1566</v>
+        <v>1554</v>
       </c>
       <c r="E126" t="s">
         <v>1576</v>
@@ -29107,16 +29107,16 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>1327</v>
+        <v>1246</v>
       </c>
       <c r="B127" t="s">
-        <v>1327</v>
+        <v>1246</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="D127" t="s">
-        <v>1570</v>
+        <v>1554</v>
       </c>
       <c r="E127" t="s">
         <v>1576</v>
@@ -29127,13 +29127,13 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>1330</v>
+        <v>188</v>
       </c>
       <c r="B128" t="s">
-        <v>1330</v>
+        <v>188</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1509</v>
+        <v>1412</v>
       </c>
       <c r="D128" t="s">
         <v>1557</v>
@@ -29147,16 +29147,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>1275</v>
+        <v>1336</v>
       </c>
       <c r="B129" t="s">
-        <v>1275</v>
+        <v>1336</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="D129" t="s">
-        <v>1562</v>
+        <v>1554</v>
       </c>
       <c r="E129" t="s">
         <v>1576</v>
@@ -29167,16 +29167,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>1291</v>
+        <v>170</v>
       </c>
       <c r="B130" t="s">
-        <v>1291</v>
+        <v>170</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1511</v>
+        <v>1417</v>
       </c>
       <c r="D130" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E130" t="s">
         <v>1576</v>
@@ -29187,16 +29187,16 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>1280</v>
+        <v>168</v>
       </c>
       <c r="B131" t="s">
-        <v>1280</v>
+        <v>168</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>1512</v>
+        <v>1418</v>
       </c>
       <c r="D131" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="E131" t="s">
         <v>1576</v>
@@ -29207,16 +29207,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>1246</v>
+        <v>1318</v>
       </c>
       <c r="B132" t="s">
-        <v>1246</v>
+        <v>1318</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>1513</v>
       </c>
       <c r="D132" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E132" t="s">
         <v>1576</v>
@@ -29227,16 +29227,16 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>1296</v>
+        <v>1270</v>
       </c>
       <c r="B133" t="s">
-        <v>1296</v>
+        <v>1270</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>1514</v>
       </c>
       <c r="D133" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E133" t="s">
         <v>1576</v>
@@ -29247,16 +29247,16 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>1338</v>
+        <v>1259</v>
       </c>
       <c r="B134" t="s">
-        <v>1338</v>
+        <v>1259</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>1515</v>
       </c>
       <c r="D134" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E134" t="s">
         <v>1576</v>
@@ -29267,16 +29267,16 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>173</v>
+        <v>1339</v>
       </c>
       <c r="B135" t="s">
-        <v>173</v>
+        <v>1339</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>1436</v>
+        <v>1516</v>
       </c>
       <c r="D135" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E135" t="s">
         <v>1576</v>
@@ -29287,16 +29287,16 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B136" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D136" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E136" t="s">
         <v>1576</v>
@@ -29307,16 +29307,16 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>1238</v>
+        <v>1267</v>
       </c>
       <c r="B137" t="s">
-        <v>1238</v>
+        <v>1267</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D137" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E137" t="s">
         <v>1576</v>
@@ -29327,16 +29327,16 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>1293</v>
+        <v>1344</v>
       </c>
       <c r="B138" t="s">
-        <v>1293</v>
+        <v>1344</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D138" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E138" t="s">
         <v>1576</v>
@@ -29347,16 +29347,16 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>166</v>
+        <v>1342</v>
       </c>
       <c r="B139" t="s">
-        <v>166</v>
+        <v>1342</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>1440</v>
+        <v>1520</v>
       </c>
       <c r="D139" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E139" t="s">
         <v>1576</v>
@@ -29367,16 +29367,16 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>1247</v>
+        <v>173</v>
       </c>
       <c r="B140" t="s">
-        <v>1247</v>
+        <v>173</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>1519</v>
+        <v>1434</v>
       </c>
       <c r="D140" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="E140" t="s">
         <v>1576</v>
@@ -29387,16 +29387,16 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>1244</v>
+        <v>186</v>
       </c>
       <c r="B141" t="s">
-        <v>1244</v>
+        <v>186</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>1520</v>
+        <v>1435</v>
       </c>
       <c r="D141" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E141" t="s">
         <v>1576</v>
@@ -29407,16 +29407,16 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>1266</v>
+        <v>158</v>
       </c>
       <c r="B142" t="s">
-        <v>1266</v>
+        <v>158</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>1521</v>
+        <v>1436</v>
       </c>
       <c r="D142" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E142" t="s">
         <v>1576</v>
@@ -29427,13 +29427,13 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B143" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>1408</v>
+        <v>1440</v>
       </c>
       <c r="D143" t="s">
         <v>1554</v>
@@ -29447,16 +29447,16 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>1322</v>
+        <v>1332</v>
       </c>
       <c r="B144" t="s">
-        <v>1322</v>
+        <v>1332</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D144" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E144" t="s">
         <v>1576</v>
@@ -29467,16 +29467,16 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>1317</v>
+        <v>1304</v>
       </c>
       <c r="B145" t="s">
-        <v>1317</v>
+        <v>1304</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D145" t="s">
-        <v>1557</v>
+        <v>1572</v>
       </c>
       <c r="E145" t="s">
         <v>1576</v>
@@ -29487,16 +29487,16 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>1265</v>
+        <v>1315</v>
       </c>
       <c r="B146" t="s">
-        <v>1265</v>
+        <v>1315</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D146" t="s">
-        <v>1557</v>
+        <v>1572</v>
       </c>
       <c r="E146" t="s">
         <v>1576</v>
@@ -29507,16 +29507,16 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>1252</v>
+        <v>1291</v>
       </c>
       <c r="B147" t="s">
-        <v>1252</v>
+        <v>1291</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D147" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E147" t="s">
         <v>1576</v>
@@ -29527,16 +29527,16 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>1250</v>
+        <v>1330</v>
       </c>
       <c r="B148" t="s">
-        <v>1250</v>
+        <v>1330</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="D148" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E148" t="s">
         <v>1576</v>
@@ -29547,16 +29547,16 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>1325</v>
+        <v>1292</v>
       </c>
       <c r="B149" t="s">
-        <v>1325</v>
+        <v>1292</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D149" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E149" t="s">
         <v>1576</v>
@@ -29567,16 +29567,16 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>1324</v>
+        <v>1312</v>
       </c>
       <c r="B150" t="s">
-        <v>1324</v>
+        <v>1312</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D150" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E150" t="s">
         <v>1576</v>
@@ -29587,16 +29587,16 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>1237</v>
+        <v>1285</v>
       </c>
       <c r="B151" t="s">
-        <v>1237</v>
+        <v>1285</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D151" t="s">
-        <v>1557</v>
+        <v>1573</v>
       </c>
       <c r="E151" t="s">
         <v>1576</v>
@@ -29607,16 +29607,16 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>1298</v>
+        <v>1319</v>
       </c>
       <c r="B152" t="s">
-        <v>1298</v>
+        <v>1319</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D152" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E152" t="s">
         <v>1576</v>
@@ -29627,16 +29627,16 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>1273</v>
+        <v>1258</v>
       </c>
       <c r="B153" t="s">
-        <v>1273</v>
+        <v>1258</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D153" t="s">
-        <v>1573</v>
+        <v>1554</v>
       </c>
       <c r="E153" t="s">
         <v>1576</v>
@@ -29647,16 +29647,16 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>1300</v>
+        <v>164</v>
       </c>
       <c r="B154" t="s">
-        <v>1300</v>
+        <v>164</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>1532</v>
+        <v>1416</v>
       </c>
       <c r="D154" t="s">
-        <v>1574</v>
+        <v>1554</v>
       </c>
       <c r="E154" t="s">
         <v>1576</v>
@@ -29667,16 +29667,16 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>183</v>
+        <v>1244</v>
       </c>
       <c r="B155" t="s">
-        <v>183</v>
+        <v>1244</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>1422</v>
+        <v>1531</v>
       </c>
       <c r="D155" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E155" t="s">
         <v>1576</v>
@@ -29687,16 +29687,16 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>1335</v>
+        <v>1278</v>
       </c>
       <c r="B156" t="s">
-        <v>1335</v>
+        <v>1278</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D156" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="E156" t="s">
         <v>1576</v>
@@ -29707,16 +29707,16 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>1264</v>
+        <v>1313</v>
       </c>
       <c r="B157" t="s">
-        <v>1264</v>
+        <v>1313</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D157" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="E157" t="s">
         <v>1576</v>
@@ -29727,16 +29727,16 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>168</v>
+        <v>1250</v>
       </c>
       <c r="B158" t="s">
-        <v>168</v>
+        <v>1250</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>1424</v>
+        <v>1534</v>
       </c>
       <c r="D158" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="E158" t="s">
         <v>1576</v>
@@ -29747,16 +29747,16 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>1343</v>
+        <v>1243</v>
       </c>
       <c r="B159" t="s">
-        <v>1343</v>
+        <v>1243</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>1535</v>
       </c>
       <c r="D159" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E159" t="s">
         <v>1576</v>
@@ -29767,16 +29767,16 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>1326</v>
+        <v>1240</v>
       </c>
       <c r="B160" t="s">
-        <v>1326</v>
+        <v>1240</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>1536</v>
       </c>
       <c r="D160" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E160" t="s">
         <v>1576</v>
@@ -29787,16 +29787,16 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>1307</v>
+        <v>1262</v>
       </c>
       <c r="B161" t="s">
-        <v>1307</v>
+        <v>1262</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>1537</v>
       </c>
       <c r="D161" t="s">
-        <v>1557</v>
+        <v>1565</v>
       </c>
       <c r="E161" t="s">
         <v>1576</v>
@@ -29807,16 +29807,16 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>1267</v>
+        <v>1341</v>
       </c>
       <c r="B162" t="s">
-        <v>1267</v>
+        <v>1341</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>1538</v>
       </c>
       <c r="D162" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E162" t="s">
         <v>1576</v>
@@ -29827,16 +29827,16 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>1285</v>
+        <v>1322</v>
       </c>
       <c r="B163" t="s">
-        <v>1285</v>
+        <v>1322</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>1539</v>
       </c>
       <c r="D163" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="E163" t="s">
         <v>1576</v>
@@ -29847,16 +29847,16 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B164" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D164" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E164" t="s">
         <v>1576</v>
@@ -29867,16 +29867,16 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>1248</v>
+        <v>1294</v>
       </c>
       <c r="B165" t="s">
-        <v>1248</v>
+        <v>1294</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>1540</v>
       </c>
       <c r="D165" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="E165" t="s">
         <v>1576</v>
@@ -29887,10 +29887,10 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>1336</v>
+        <v>1247</v>
       </c>
       <c r="B166" t="s">
-        <v>1336</v>
+        <v>1247</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>1541</v>
@@ -29907,16 +29907,16 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>1289</v>
+        <v>1329</v>
       </c>
       <c r="B167" t="s">
-        <v>1289</v>
+        <v>1329</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>1542</v>
       </c>
       <c r="D167" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E167" t="s">
         <v>1576</v>
@@ -29927,13 +29927,13 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>1278</v>
+        <v>190</v>
       </c>
       <c r="B168" t="s">
-        <v>1278</v>
+        <v>190</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>1543</v>
+        <v>1429</v>
       </c>
       <c r="D168" t="s">
         <v>1557</v>
@@ -29947,16 +29947,16 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>1245</v>
+        <v>1333</v>
       </c>
       <c r="B169" t="s">
-        <v>1245</v>
+        <v>1333</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D169" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E169" t="s">
         <v>1576</v>
@@ -29967,16 +29967,16 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>177</v>
+        <v>1255</v>
       </c>
       <c r="B170" t="s">
-        <v>177</v>
+        <v>1255</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>1435</v>
+        <v>1544</v>
       </c>
       <c r="D170" t="s">
-        <v>1557</v>
+        <v>1574</v>
       </c>
       <c r="E170" t="s">
         <v>1576</v>
@@ -29987,16 +29987,16 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>1323</v>
+        <v>1288</v>
       </c>
       <c r="B171" t="s">
-        <v>1323</v>
+        <v>1288</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>1545</v>
       </c>
       <c r="D171" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E171" t="s">
         <v>1576</v>
@@ -30007,16 +30007,16 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>1333</v>
+        <v>1249</v>
       </c>
       <c r="B172" t="s">
-        <v>1333</v>
+        <v>1249</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>1546</v>
       </c>
       <c r="D172" t="s">
-        <v>1557</v>
+        <v>1575</v>
       </c>
       <c r="E172" t="s">
         <v>1576</v>
@@ -30027,16 +30027,16 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>1311</v>
+        <v>1276</v>
       </c>
       <c r="B173" t="s">
-        <v>1311</v>
+        <v>1276</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>1547</v>
       </c>
       <c r="D173" t="s">
-        <v>1559</v>
+        <v>1572</v>
       </c>
       <c r="E173" t="s">
         <v>1576</v>
@@ -30047,16 +30047,16 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>1290</v>
+        <v>1299</v>
       </c>
       <c r="B174" t="s">
-        <v>1290</v>
+        <v>1299</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>1548</v>
       </c>
       <c r="D174" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="E174" t="s">
         <v>1576</v>
@@ -30067,16 +30067,16 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>1319</v>
+        <v>1254</v>
       </c>
       <c r="B175" t="s">
-        <v>1319</v>
+        <v>1254</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>1549</v>
       </c>
       <c r="D175" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E175" t="s">
         <v>1576</v>
@@ -30087,16 +30087,16 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B176" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>1441</v>
       </c>
       <c r="D176" t="s">
-        <v>1559</v>
+        <v>1564</v>
       </c>
       <c r="E176" t="s">
         <v>1576</v>
@@ -30201,7 +30201,7 @@
     <hyperlink ref="F47" r:id="rId92" location="isAssociatedWith"/>
     <hyperlink ref="C48" r:id="rId93"/>
     <hyperlink ref="F48" r:id="rId94" location="isAssociatedWith"/>
-    <hyperlink ref="C49" r:id="rId95"/>
+    <hyperlink ref="C49" r:id="rId95" location="wasUpdatedBy"/>
     <hyperlink ref="F49" r:id="rId96" location="isAssociatedWith"/>
     <hyperlink ref="C50" r:id="rId97"/>
     <hyperlink ref="F50" r:id="rId98" location="isAssociatedWith"/>
@@ -30265,7 +30265,7 @@
     <hyperlink ref="F79" r:id="rId156" location="isAssociatedWith"/>
     <hyperlink ref="C80" r:id="rId157"/>
     <hyperlink ref="F80" r:id="rId158" location="isAssociatedWith"/>
-    <hyperlink ref="C81" r:id="rId159"/>
+    <hyperlink ref="C81" r:id="rId159" location="AFRL_0000010"/>
     <hyperlink ref="F81" r:id="rId160" location="isAssociatedWith"/>
     <hyperlink ref="C82" r:id="rId161"/>
     <hyperlink ref="F82" r:id="rId162" location="isAssociatedWith"/>
@@ -30341,7 +30341,7 @@
     <hyperlink ref="F117" r:id="rId232" location="isAssociatedWith"/>
     <hyperlink ref="C118" r:id="rId233"/>
     <hyperlink ref="F118" r:id="rId234" location="isAssociatedWith"/>
-    <hyperlink ref="C119" r:id="rId235" location="wasUpdatedBy"/>
+    <hyperlink ref="C119" r:id="rId235"/>
     <hyperlink ref="F119" r:id="rId236" location="isAssociatedWith"/>
     <hyperlink ref="C120" r:id="rId237"/>
     <hyperlink ref="F120" r:id="rId238" location="isAssociatedWith"/>
@@ -30411,7 +30411,7 @@
     <hyperlink ref="F152" r:id="rId302" location="isAssociatedWith"/>
     <hyperlink ref="C153" r:id="rId303"/>
     <hyperlink ref="F153" r:id="rId304" location="isAssociatedWith"/>
-    <hyperlink ref="C154" r:id="rId305" location="AFRL_0000010"/>
+    <hyperlink ref="C154" r:id="rId305"/>
     <hyperlink ref="F154" r:id="rId306" location="isAssociatedWith"/>
     <hyperlink ref="C155" r:id="rId307"/>
     <hyperlink ref="F155" r:id="rId308" location="isAssociatedWith"/>
